--- a/biology/Zoologie/Adenomera_hylaedactyla/Adenomera_hylaedactyla.xlsx
+++ b/biology/Zoologie/Adenomera_hylaedactyla/Adenomera_hylaedactyla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adenomera hylaedactyla est une espèce d'amphibiens de la famille des Leptodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adenomera hylaedactyla est une espèce d'amphibiens de la famille des Leptodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre jusqu'à 1 000 m d'altitude[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre jusqu'à 1 000 m d'altitude, :
 dans l'Est du Pérou ;
 dans l'est de l'Équateur ;
 dans le sud-est de la Colombie ;
@@ -551,9 +565,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adulte le mâle mesure entre 22 et 24 mm et la femelle de 26 à 27 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adulte le mâle mesure entre 22 et 24 mm et la femelle de 26 à 27 mm.
 </t>
         </is>
       </c>
@@ -582,7 +598,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope, 1868 : An examination of the Reptilia and Batrachia obtained by the Orton Expedition to Equador and the Upper Amazon, with notes on other species. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 20, p. 96-140 (texte intégral).</t>
         </is>
